--- a/Excel/TestInput/Input.xlsx
+++ b/Excel/TestInput/Input.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaik\source\repos\Excel\Excel\TestInput\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaik\source\git\Excel\Excel\TestInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3955810F-0375-4F83-A227-80072D58D38D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999280EC-E54F-4E58-B7F6-51E2386668C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="temp" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -358,9 +358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
